--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H2">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J2">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>1.259195843254445</v>
+        <v>0.7266313842182223</v>
       </c>
       <c r="R2">
-        <v>11.33276258929</v>
+        <v>6.539682457964001</v>
       </c>
       <c r="S2">
-        <v>0.0006694821702841106</v>
+        <v>0.0002990344769848933</v>
       </c>
       <c r="T2">
-        <v>0.0006694821702841105</v>
+        <v>0.0002990344769848934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H3">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J3">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>14.38167322821611</v>
+        <v>7.659217058451223</v>
       </c>
       <c r="R3">
-        <v>129.435059053945</v>
+        <v>68.93295352606101</v>
       </c>
       <c r="S3">
-        <v>0.007646367208660993</v>
+        <v>0.003152038319473261</v>
       </c>
       <c r="T3">
-        <v>0.007646367208660993</v>
+        <v>0.003152038319473261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H4">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J4">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>4.297051414957222</v>
+        <v>5.090549396911445</v>
       </c>
       <c r="R4">
-        <v>38.67346273461499</v>
+        <v>45.814944572203</v>
       </c>
       <c r="S4">
-        <v>0.002284632150367301</v>
+        <v>0.002094940859331249</v>
       </c>
       <c r="T4">
-        <v>0.002284632150367301</v>
+        <v>0.00209494085933125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1653316666666667</v>
+        <v>0.08805033333333334</v>
       </c>
       <c r="H5">
-        <v>0.495995</v>
+        <v>0.264151</v>
       </c>
       <c r="I5">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257384</v>
       </c>
       <c r="J5">
-        <v>0.01068275948711296</v>
+        <v>0.005589762818257385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.1547525342011111</v>
+        <v>0.1063071883985556</v>
       </c>
       <c r="R5">
-        <v>1.39277280781</v>
+        <v>0.9567646955870002</v>
       </c>
       <c r="S5">
-        <v>8.227795780055694E-05</v>
+        <v>4.374916246798052E-05</v>
       </c>
       <c r="T5">
-        <v>8.227795780055694E-05</v>
+        <v>4.374916246798053E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.754054</v>
       </c>
       <c r="I6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J6">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>113.6183202765853</v>
+        <v>123.1102672615174</v>
       </c>
       <c r="R6">
-        <v>1022.564882489268</v>
+        <v>1107.992405353656</v>
       </c>
       <c r="S6">
-        <v>0.06040795008202155</v>
+        <v>0.05066422285300329</v>
       </c>
       <c r="T6">
-        <v>0.06040795008202154</v>
+        <v>0.05066422285300331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.754054</v>
       </c>
       <c r="I7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J7">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
-        <v>1297.670702861799</v>
+        <v>1297.6707028618</v>
       </c>
       <c r="R7">
-        <v>11679.03632575619</v>
+        <v>11679.0363257562</v>
       </c>
       <c r="S7">
-        <v>0.6899382674427027</v>
+        <v>0.5340373239540095</v>
       </c>
       <c r="T7">
-        <v>0.6899382674427027</v>
+        <v>0.5340373239540096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.754054</v>
       </c>
       <c r="I8">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J8">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>387.7266324575286</v>
+        <v>862.4715507381848</v>
       </c>
       <c r="R8">
-        <v>3489.539692117758</v>
+        <v>7762.243956643662</v>
       </c>
       <c r="S8">
-        <v>0.2061443172364123</v>
+        <v>0.3549375029635214</v>
       </c>
       <c r="T8">
-        <v>0.2061443172364123</v>
+        <v>0.3549375029635215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>44.754054</v>
       </c>
       <c r="I9">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761942</v>
       </c>
       <c r="J9">
-        <v>0.9639145454193405</v>
+        <v>0.9470512964761943</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>13.96345380956133</v>
+        <v>18.01120438755533</v>
       </c>
       <c r="R9">
-        <v>125.671084286052</v>
+        <v>162.100839487998</v>
       </c>
       <c r="S9">
-        <v>0.007424010658203905</v>
+        <v>0.00741224670565992</v>
       </c>
       <c r="T9">
-        <v>0.007424010658203905</v>
+        <v>0.007412246705659923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H10">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I10">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J10">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N10">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O10">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P10">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q10">
-        <v>2.994260809469778</v>
+        <v>6.156342184606223</v>
       </c>
       <c r="R10">
-        <v>26.948347285228</v>
+        <v>55.40707966145601</v>
       </c>
       <c r="S10">
-        <v>0.001591971761866289</v>
+        <v>0.002533552231981326</v>
       </c>
       <c r="T10">
-        <v>0.001591971761866288</v>
+        <v>0.002533552231981327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H11">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I11">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J11">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q11">
-        <v>34.19839793193045</v>
+        <v>64.89227151773824</v>
       </c>
       <c r="R11">
-        <v>307.7855813873741</v>
+        <v>584.0304436596441</v>
       </c>
       <c r="S11">
-        <v>0.01818241204524213</v>
+        <v>0.02670546152441004</v>
       </c>
       <c r="T11">
-        <v>0.01818241204524213</v>
+        <v>0.02670546152441005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H12">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I12">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J12">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N12">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q12">
-        <v>10.21802344489089</v>
+        <v>43.12938399811245</v>
       </c>
       <c r="R12">
-        <v>91.962211004018</v>
+        <v>388.164455983012</v>
       </c>
       <c r="S12">
-        <v>0.005432661288191027</v>
+        <v>0.01774926471202749</v>
       </c>
       <c r="T12">
-        <v>0.005432661288191026</v>
+        <v>0.0177492647120275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3931446666666667</v>
+        <v>0.7460013333333334</v>
       </c>
       <c r="H13">
-        <v>1.179434</v>
+        <v>2.238004</v>
       </c>
       <c r="I13">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554834</v>
       </c>
       <c r="J13">
-        <v>0.02540269509354649</v>
+        <v>0.04735894070554835</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N13">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q13">
-        <v>0.3679883878324445</v>
+        <v>0.9006814771275556</v>
       </c>
       <c r="R13">
-        <v>3.311895490492</v>
+        <v>8.106133294148</v>
       </c>
       <c r="S13">
-        <v>0.000195649998247043</v>
+        <v>0.0003706622371294838</v>
       </c>
       <c r="T13">
-        <v>0.000195649998247043</v>
+        <v>0.000370662237129484</v>
       </c>
     </row>
   </sheetData>
